--- a/ESP8266-01-03 Breakout BOM v1.0.xlsx
+++ b/ESP8266-01-03 Breakout BOM v1.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>Qty</t>
   </si>
@@ -176,9 +176,6 @@
     <t>ESP8266</t>
   </si>
   <si>
-    <t>REG</t>
-  </si>
-  <si>
     <t>LD1117AS33TR</t>
   </si>
   <si>
@@ -228,6 +225,45 @@
   </si>
   <si>
     <t>SWITCH TACTILE SPST-NO 0.05A 32V</t>
+  </si>
+  <si>
+    <t>C1, C3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>S1, S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>J2, J3</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>ESP8266 (01/03 variant)</t>
   </si>
 </sst>
 </file>
@@ -342,8 +378,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K34" totalsRowShown="0">
-  <autoFilter ref="A1:K34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K35" totalsRowShown="0">
+  <autoFilter ref="A1:K35"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Qty"/>
     <tableColumn id="9" name="Type"/>
@@ -626,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,32 +724,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="H2">
-        <v>0.68</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" s="8">
         <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0.68</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -721,115 +748,127 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
+        <v>0.68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
         <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0.44999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
       <c r="H5">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0.60000000000000009</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -842,10 +881,10 @@
       </c>
       <c r="J6">
         <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0.30000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -853,131 +892,157 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0.52</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>1.02</v>
+        <v>0.52</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
       <c r="H9">
-        <v>0.81</v>
+        <v>0.51</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
         <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0.81</v>
+        <v>1.02</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
+      <c r="H10">
+        <v>0.81</v>
+      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
         <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
@@ -996,114 +1061,135 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
-      <c r="H12">
-        <v>0.86</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
         <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0.86</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>0.86</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
+        <v>0.86</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>1.88</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
+        <v>0.3133333333333333</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>1.88</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0.3133333333333333</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+    </row>
+    <row r="15" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <f>14/40</f>
         <v>0.35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F15" t="s">
         <v>64</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>1.94</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
+        <v>0.67899999999999994</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>1.94</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0.67899999999999994</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15">
-        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
@@ -1136,22 +1222,14 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5">
-        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="6"/>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -1243,7 +1321,7 @@
       </c>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1339,6 +1417,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
         <v>7</v>
       </c>
@@ -1351,14 +1430,21 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31">
-        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="1"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5">
+        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
@@ -1381,51 +1467,65 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3">
-        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="4"/>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <f>Table1[[#This Row],[Unit Price]]*(Table1[[#This Row],[Qty]]+Table1[[#This Row],[Extra Qty]])</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="2">
         <f>SUM(Table1[Qty])</f>
-        <v>17.516666666666669</v>
-      </c>
-      <c r="H35" t="s">
+        <v>18.516666666666669</v>
+      </c>
+      <c r="H36" t="s">
         <v>9</v>
       </c>
-      <c r="J35">
-        <f>SUM(J2:J34)</f>
-        <v>6.4323333333333341</v>
+      <c r="J36">
+        <f>SUM(J2:J35)</f>
+        <v>11.432333333333332</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="K5" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K6" r:id="rId4"/>
+    <hyperlink ref="K7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>